--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model2_test_gibbs.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model2_test_gibbs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,303 +32,309 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="99">
-  <si>
-    <t>General Reaction and Sampling Platform (GRASP)</t>
-  </si>
-  <si>
-    <t>Model name</t>
-  </si>
-  <si>
-    <t>toy_model2_test_gibbs</t>
-  </si>
-  <si>
-    <t>Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t>ORACLE</t>
-  </si>
-  <si>
-    <t>NLP solver (NLOPT, OPTI, FMINCON (default))</t>
-  </si>
-  <si>
-    <t>FMINCON</t>
-  </si>
-  <si>
-    <t>Number of exp. conditions (excluding reference state)</t>
-  </si>
-  <si>
-    <t>Number of model structures</t>
-  </si>
-  <si>
-    <t>Number of particles</t>
-  </si>
-  <si>
-    <t>Parallel mode (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Number of cores (ignored if Parallel mode disabled)</t>
-  </si>
-  <si>
-    <t>Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t>Compute robust fluxes (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Compute thermodynamics (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Inicial tolerance (OPTIONAL)</t>
-  </si>
-  <si>
-    <t>Final tolerance (in the case of ORACLE, set to 1)</t>
-  </si>
-  <si>
-    <t>rxn ID</t>
-  </si>
-  <si>
-    <t>m1</t>
-  </si>
-  <si>
-    <t>m2</t>
-  </si>
-  <si>
-    <t>m3</t>
-  </si>
-  <si>
-    <t>m4</t>
-  </si>
-  <si>
-    <t>m5</t>
-  </si>
-  <si>
-    <t>m6</t>
-  </si>
-  <si>
-    <t>m7</t>
-  </si>
-  <si>
-    <t>m8</t>
-  </si>
-  <si>
-    <t>m9</t>
-  </si>
-  <si>
-    <t>m10</t>
-  </si>
-  <si>
-    <t>m11</t>
-  </si>
-  <si>
-    <t>m12</t>
-  </si>
-  <si>
-    <t>m13</t>
-  </si>
-  <si>
-    <t>m14</t>
-  </si>
-  <si>
-    <t>m15</t>
-  </si>
-  <si>
-    <t>m16</t>
-  </si>
-  <si>
-    <t>m17</t>
-  </si>
-  <si>
-    <t>r1</t>
-  </si>
-  <si>
-    <t>r2</t>
-  </si>
-  <si>
-    <t>r3</t>
-  </si>
-  <si>
-    <t>r4</t>
-  </si>
-  <si>
-    <t>r5</t>
-  </si>
-  <si>
-    <t>r6</t>
-  </si>
-  <si>
-    <t>r7</t>
-  </si>
-  <si>
-    <t>r8</t>
-  </si>
-  <si>
-    <t>r9</t>
-  </si>
-  <si>
-    <t>r10</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Metabolite name</t>
-  </si>
-  <si>
-    <t>balanced?</t>
-  </si>
-  <si>
-    <t>active?</t>
-  </si>
-  <si>
-    <t>fixed?</t>
-  </si>
-  <si>
-    <t>measured?</t>
-  </si>
-  <si>
-    <t>reaction name</t>
-  </si>
-  <si>
-    <t>transportRxn?</t>
-  </si>
-  <si>
-    <t>modelled?</t>
-  </si>
-  <si>
-    <t>Isoenzymes</t>
-  </si>
-  <si>
-    <t>met</t>
-  </si>
-  <si>
-    <t>rxn</t>
-  </si>
-  <si>
-    <t>∆Gr'_min (kJ/mol)</t>
-  </si>
-  <si>
-    <t>∆Gr'_max (kJ/mol)</t>
-  </si>
-  <si>
-    <t>min (M)</t>
-  </si>
-  <si>
-    <t>max (M)</t>
-  </si>
-  <si>
-    <t>Fluxes (umol/gCDW/h)</t>
-  </si>
-  <si>
-    <t>vref_mean</t>
-  </si>
-  <si>
-    <t>vref_std</t>
-  </si>
-  <si>
-    <t>vexp1_mean</t>
-  </si>
-  <si>
-    <t>vexp1_std</t>
-  </si>
-  <si>
-    <t>enzyme/rxn</t>
-  </si>
-  <si>
-    <t>MBo10_LB2</t>
-  </si>
-  <si>
-    <t>MBo10_meas2</t>
-  </si>
-  <si>
-    <t>MBo10_UB2</t>
-  </si>
-  <si>
-    <t>MBo10_LB2 (M)</t>
-  </si>
-  <si>
-    <t>MBo10_UB2 (M)</t>
-  </si>
-  <si>
-    <t>reaction ID</t>
-  </si>
-  <si>
-    <t>kinetic mechanism</t>
-  </si>
-  <si>
-    <t>substrate_order</t>
-  </si>
-  <si>
-    <t>product_order</t>
-  </si>
-  <si>
-    <t>promiscuous</t>
-  </si>
-  <si>
-    <t>inhibitors</t>
-  </si>
-  <si>
-    <t>activators</t>
-  </si>
-  <si>
-    <t>negative effector</t>
-  </si>
-  <si>
-    <t>positive effector</t>
-  </si>
-  <si>
-    <t>allosteric</t>
-  </si>
-  <si>
-    <t>subunits</t>
-  </si>
-  <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>substrateInhibOrderedBiBi</t>
-  </si>
-  <si>
-    <t>m3 m6</t>
-  </si>
-  <si>
-    <t>m5 m14</t>
-  </si>
-  <si>
-    <t>UniUniPromiscuous</t>
-  </si>
-  <si>
-    <t>m5 m6</t>
-  </si>
-  <si>
-    <t>m7 m10</t>
-  </si>
-  <si>
-    <t>r2 r5</t>
-  </si>
-  <si>
-    <t>AANATCompInhibIndep</t>
-  </si>
-  <si>
-    <t>m1 m7 m1 m10</t>
-  </si>
-  <si>
-    <t>m8 m11 m12 m12</t>
-  </si>
-  <si>
-    <t>r3 r6</t>
-  </si>
-  <si>
-    <t>randomBiBiCompInhib</t>
-  </si>
-  <si>
-    <t>m2 m8 </t>
-  </si>
-  <si>
-    <t>m9 m13</t>
-  </si>
-  <si>
-    <t>massAction</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="101">
+  <si>
+    <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toy_model2_test_gibbs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORACLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMINCON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LP solver (linprog or gurobi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gurobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of model structures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of particles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parallel mode (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolite name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">balanced?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">active?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fixed?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">measured?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transportRxn?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modelled?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isoenzymes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">met</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆Gr'_min (kJ/mol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆Gr'_max (kJ/mol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluxes (umol/gCDW/h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_std</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vexp1_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vexp1_std</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enzyme/rxn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_LB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_meas2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_UB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_LB2 (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_UB2 (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kinetic mechanism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">substrate_order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product_order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promiscuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inhibitors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative effector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive effector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allosteric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subunits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">substrateInhibOrderedBiBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m3 m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5 m14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UniUniPromiscuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5 m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m7 m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r2 r5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AANATCompInhibIndep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m1 m7 m1 m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m8 m11 m12 m12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r3 r6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">randomBiBiCompInhib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m2 m8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">m9 m13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">massAction</t>
   </si>
 </sst>
 </file>
@@ -336,7 +342,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
@@ -461,7 +467,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -484,6 +490,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -603,17 +613,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="71.2348178137652"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.1012145748988"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="71.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -646,79 +656,87 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5" t="n">
-        <v>1</v>
+      <c r="B5" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3" t="n">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="6" t="n">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="7" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="5" t="n">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="5" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="8"/>
-    </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="6" t="n">
-        <v>1</v>
-      </c>
+    <row r="11" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="9" t="n">
+      <c r="A12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="5"/>
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="10" t="n">
+      <c r="A14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,7 +746,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -743,35 +761,35 @@
   </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G16" activeCellId="1" sqref="A5:B5 G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>65</v>
       </c>
+      <c r="D1" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
-        <v>42</v>
+      <c r="A2" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-3.44837263471314</v>
@@ -787,8 +805,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>43</v>
+      <c r="A3" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>18.1062038658132</v>
@@ -804,8 +822,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
-        <v>44</v>
+      <c r="A4" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1.22835860198554</v>
@@ -834,7 +852,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -849,32 +867,32 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>69</v>
       </c>
+      <c r="C1" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
-        <v>35</v>
+      <c r="A2" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.938105540546311</v>
@@ -887,8 +905,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>36</v>
+      <c r="A3" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.948692986021061</v>
@@ -901,8 +919,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
-        <v>37</v>
+      <c r="A4" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.963822080137339</v>
@@ -915,8 +933,8 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
-        <v>38</v>
+      <c r="A5" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.781513345189378</v>
@@ -929,8 +947,8 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
-        <v>39</v>
+      <c r="A6" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -943,8 +961,8 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
-        <v>40</v>
+      <c r="A7" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -957,8 +975,8 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
-        <v>41</v>
+      <c r="A8" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -971,8 +989,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
-        <v>42</v>
+      <c r="A9" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -985,8 +1003,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
-        <v>43</v>
+      <c r="A10" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -999,8 +1017,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
-        <v>44</v>
+      <c r="A11" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -1015,7 +1033,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1030,32 +1048,32 @@
   </sheetPr>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>71</v>
+      <c r="D1" s="12" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="s">
-        <v>18</v>
+      <c r="A2" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.915335636956399</v>
@@ -1068,8 +1086,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
-        <v>19</v>
+      <c r="A3" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -1082,8 +1100,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
-        <v>20</v>
+      <c r="A4" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -1096,8 +1114,8 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
-        <v>21</v>
+      <c r="A5" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -1110,8 +1128,8 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
-        <v>22</v>
+      <c r="A6" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -1124,8 +1142,8 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
-        <v>23</v>
+      <c r="A7" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.983111169335452</v>
@@ -1138,8 +1156,8 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
-        <v>24</v>
+      <c r="A8" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -1152,8 +1170,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
-        <v>25</v>
+      <c r="A9" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -1166,8 +1184,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
-        <v>26</v>
+      <c r="A10" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.962684126668323</v>
@@ -1180,8 +1198,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="s">
-        <v>27</v>
+      <c r="A11" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -1194,8 +1212,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="s">
-        <v>28</v>
+      <c r="A12" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.939249577558331</v>
@@ -1208,8 +1226,8 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="s">
-        <v>29</v>
+      <c r="A13" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.867976398555313</v>
@@ -1222,8 +1240,8 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="s">
-        <v>30</v>
+      <c r="A14" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1236,8 +1254,8 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="s">
-        <v>31</v>
+      <c r="A15" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1250,8 +1268,8 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="s">
-        <v>32</v>
+      <c r="A16" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.998479065484581</v>
@@ -1264,8 +1282,8 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="s">
-        <v>33</v>
+      <c r="A17" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.994489930226294</v>
@@ -1278,8 +1296,8 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12" t="s">
-        <v>34</v>
+      <c r="A18" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.994864456585962</v>
@@ -1294,7 +1312,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1309,71 +1327,71 @@
   </sheetPr>
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W13" activeCellId="0" sqref="W13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W13" activeCellId="1" sqref="A5:B5 W13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.9919028340081"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="56.3441295546559"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="56.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="F1" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="H1" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="I1" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="J1" s="12" t="s">
         <v>83</v>
       </c>
+      <c r="K1" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
-        <v>35</v>
+      <c r="A2" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1383,20 +1401,20 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>36</v>
+      <c r="A3" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1406,46 +1424,46 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
-        <v>37</v>
+      <c r="A4" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F4" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>26</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>24</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1455,20 +1473,20 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
-        <v>39</v>
+      <c r="A6" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1478,23 +1496,23 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
-        <v>40</v>
+      <c r="A7" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -1504,11 +1522,11 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
-        <v>41</v>
+      <c r="A8" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1518,11 +1536,11 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
-        <v>42</v>
+      <c r="A9" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1532,11 +1550,11 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
-        <v>43</v>
+      <c r="A10" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1546,11 +1564,11 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
-        <v>44</v>
+      <c r="A11" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1562,7 +1580,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1577,74 +1595,74 @@
   </sheetPr>
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R2" activeCellId="1" sqref="A5:B5 R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="F1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="H1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="I1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="J1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="K1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="L1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="M1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="N1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="O1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="P1" s="12" t="s">
         <v>34</v>
       </c>
+      <c r="Q1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
-        <v>35</v>
+      <c r="A2" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1699,8 +1717,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>36</v>
+      <c r="A3" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1755,8 +1773,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
-        <v>37</v>
+      <c r="A4" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-1</v>
@@ -1811,8 +1829,8 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
-        <v>38</v>
+      <c r="A5" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1867,8 +1885,8 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
-        <v>39</v>
+      <c r="A6" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1923,8 +1941,8 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
-        <v>40</v>
+      <c r="A7" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -1979,8 +1997,8 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
-        <v>41</v>
+      <c r="A8" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -2035,8 +2053,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
-        <v>42</v>
+      <c r="A9" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2091,8 +2109,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
-        <v>43</v>
+      <c r="A10" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2147,8 +2165,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
-        <v>44</v>
+      <c r="A11" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2205,7 +2223,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2220,41 +2238,41 @@
   </sheetPr>
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H1" activeCellId="1" sqref="A5:B5 H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>50</v>
       </c>
+      <c r="E1" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="s">
-        <v>18</v>
+      <c r="A2" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2270,11 +2288,11 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
-        <v>19</v>
+      <c r="A3" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2290,11 +2308,11 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
-        <v>20</v>
+      <c r="A4" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -2310,11 +2328,11 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
-        <v>21</v>
+      <c r="A5" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2330,11 +2348,11 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
-        <v>22</v>
+      <c r="A6" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -2350,11 +2368,11 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
-        <v>23</v>
+      <c r="A7" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -2370,11 +2388,11 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
-        <v>24</v>
+      <c r="A8" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -2390,11 +2408,11 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
-        <v>25</v>
+      <c r="A9" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -2410,11 +2428,11 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
-        <v>26</v>
+      <c r="A10" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -2430,11 +2448,11 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="s">
-        <v>27</v>
+      <c r="A11" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -2450,11 +2468,11 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="s">
-        <v>28</v>
+      <c r="A12" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -2470,11 +2488,11 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="s">
-        <v>29</v>
+      <c r="A13" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -2490,11 +2508,11 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="s">
-        <v>30</v>
+      <c r="A14" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -2510,11 +2528,11 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="s">
-        <v>31</v>
+      <c r="A15" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -2530,11 +2548,11 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="s">
-        <v>32</v>
+      <c r="A16" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -2550,11 +2568,11 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="s">
-        <v>33</v>
+      <c r="A17" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -2570,11 +2588,11 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12" t="s">
-        <v>34</v>
+      <c r="A18" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -2592,7 +2610,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2607,150 +2625,150 @@
   </sheetPr>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="1" sqref="A5:B5 H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>43</v>
+      <c r="B10" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -2760,11 +2778,11 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>44</v>
+      <c r="A11" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -2776,7 +2794,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2791,74 +2809,74 @@
   </sheetPr>
   <dimension ref="A2:A12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
-        <v>44</v>
+      <c r="A12" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2873,109 +2891,109 @@
   </sheetPr>
   <dimension ref="A2:A19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
-        <v>55</v>
+      <c r="A2" s="12" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
-        <v>18</v>
+      <c r="A3" s="13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
-        <v>19</v>
+      <c r="A4" s="13" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
-        <v>20</v>
+      <c r="A5" s="13" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
-        <v>21</v>
+      <c r="A6" s="13" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
-        <v>22</v>
+      <c r="A7" s="13" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
-        <v>23</v>
+      <c r="A8" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
-        <v>24</v>
+      <c r="A9" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
-        <v>25</v>
+      <c r="A10" s="13" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="s">
-        <v>26</v>
+      <c r="A11" s="13" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="s">
-        <v>27</v>
+      <c r="A12" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="s">
-        <v>28</v>
+      <c r="A13" s="13" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="s">
-        <v>29</v>
+      <c r="A14" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="s">
-        <v>30</v>
+      <c r="A15" s="13" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="s">
-        <v>31</v>
+      <c r="A16" s="13" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="s">
-        <v>32</v>
+      <c r="A17" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12" t="s">
-        <v>33</v>
+      <c r="A18" s="13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12" t="s">
-        <v>34</v>
+      <c r="A19" s="13" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2990,109 +3008,109 @@
   </sheetPr>
   <dimension ref="A2:A19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
-        <v>55</v>
+      <c r="A2" s="12" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
-        <v>18</v>
+      <c r="A3" s="13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
-        <v>19</v>
+      <c r="A4" s="13" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
-        <v>20</v>
+      <c r="A5" s="13" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
-        <v>21</v>
+      <c r="A6" s="13" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
-        <v>22</v>
+      <c r="A7" s="13" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
-        <v>23</v>
+      <c r="A8" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
-        <v>24</v>
+      <c r="A9" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
-        <v>25</v>
+      <c r="A10" s="13" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="s">
-        <v>26</v>
+      <c r="A11" s="13" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="s">
-        <v>27</v>
+      <c r="A12" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="s">
-        <v>28</v>
+      <c r="A13" s="13" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="s">
-        <v>29</v>
+      <c r="A14" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="s">
-        <v>30</v>
+      <c r="A15" s="13" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="s">
-        <v>31</v>
+      <c r="A16" s="13" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="s">
-        <v>32</v>
+      <c r="A17" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12" t="s">
-        <v>33</v>
+      <c r="A18" s="13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12" t="s">
-        <v>34</v>
+      <c r="A19" s="13" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3107,32 +3125,32 @@
   </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>58</v>
       </c>
+      <c r="B1" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
-        <v>35</v>
+      <c r="A2" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-60</v>
@@ -3142,8 +3160,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>36</v>
+      <c r="A3" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-37.2</v>
@@ -3153,8 +3171,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
-        <v>37</v>
+      <c r="A4" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>100</v>
@@ -3164,8 +3182,8 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
-        <v>38</v>
+      <c r="A5" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-23.24</v>
@@ -3175,8 +3193,8 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
-        <v>39</v>
+      <c r="A6" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-43.2</v>
@@ -3186,8 +3204,8 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
-        <v>40</v>
+      <c r="A7" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>10</v>
@@ -3197,8 +3215,8 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
-        <v>41</v>
+      <c r="A8" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-40</v>
@@ -3208,8 +3226,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
-        <v>42</v>
+      <c r="A9" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-10</v>
@@ -3219,8 +3237,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
-        <v>43</v>
+      <c r="A10" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-10</v>
@@ -3230,8 +3248,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
-        <v>44</v>
+      <c r="A11" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-30</v>
@@ -3243,7 +3261,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3258,29 +3276,29 @@
   </sheetPr>
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>60</v>
+      <c r="A1" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="s">
-        <v>18</v>
+      <c r="A2" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.000615288822287888</v>
@@ -3290,8 +3308,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
-        <v>19</v>
+      <c r="A3" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -3301,8 +3319,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
-        <v>20</v>
+      <c r="A4" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1E-012</v>
@@ -3312,8 +3330,8 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
-        <v>21</v>
+      <c r="A5" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -3323,8 +3341,8 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
-        <v>22</v>
+      <c r="A6" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -3334,8 +3352,8 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
-        <v>23</v>
+      <c r="A7" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.00350330474934702</v>
@@ -3345,8 +3363,8 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
-        <v>24</v>
+      <c r="A8" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>1E-012</v>
@@ -3356,8 +3374,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
-        <v>25</v>
+      <c r="A9" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1E-012</v>
@@ -3367,8 +3385,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
-        <v>26</v>
+      <c r="A10" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.00268714877052532</v>
@@ -3378,8 +3396,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="s">
-        <v>27</v>
+      <c r="A11" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1E-012</v>
@@ -3389,8 +3407,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="s">
-        <v>28</v>
+      <c r="A12" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.000159747798927714</v>
@@ -3400,8 +3418,8 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="s">
-        <v>29</v>
+      <c r="A13" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.00041491983472442</v>
@@ -3411,8 +3429,8 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="s">
-        <v>30</v>
+      <c r="A14" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -3422,8 +3440,8 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="s">
-        <v>31</v>
+      <c r="A15" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -3433,8 +3451,8 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="s">
-        <v>32</v>
+      <c r="A16" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.0010378749993985</v>
@@ -3444,8 +3462,8 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="s">
-        <v>33</v>
+      <c r="A17" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.0116808876440807</v>
@@ -3455,8 +3473,8 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12" t="s">
-        <v>34</v>
+      <c r="A18" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.00642280555922945</v>
@@ -3468,7 +3486,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model2_test_gibbs.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model2_test_gibbs.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="95">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -43,13 +43,13 @@
     <t xml:space="preserve">toy_model2_test_gibbs</t>
   </si>
   <si>
-    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORACLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+    <t xml:space="preserve">Sampling mode (GRASP or rejection)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRASP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP solver (NLOPT or FMINCON (default))</t>
   </si>
   <si>
     <t xml:space="preserve">FMINCON</t>
@@ -76,18 +76,9 @@
     <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
   </si>
   <si>
-    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
   </si>
   <si>
-    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
   </si>
   <si>
@@ -184,12 +175,6 @@
     <t xml:space="preserve">balanced?</t>
   </si>
   <si>
-    <t xml:space="preserve">active?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fixed?</t>
-  </si>
-  <si>
     <t xml:space="preserve">measured?</t>
   </si>
   <si>
@@ -197,9 +182,6 @@
   </si>
   <si>
     <t xml:space="preserve">transportRxn?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modelled?</t>
   </si>
   <si>
     <t xml:space="preserve">Isoenzymes</t>
@@ -467,7 +449,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -498,18 +480,6 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -613,10 +583,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:B5"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -632,7 +602,7 @@
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -640,7 +610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -648,7 +618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -704,42 +674,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
+    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="9"/>
+      <c r="B11" s="7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="5"/>
-    </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="11" t="n">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="B12" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
@@ -762,7 +715,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="1" sqref="A5:B5 G16"/>
+      <selection pane="topLeft" activeCell="G16" activeCellId="1" sqref="B3 G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -771,25 +724,25 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>67</v>
+      <c r="A1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="s">
-        <v>44</v>
+      <c r="A2" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-3.44837263471314</v>
@@ -805,8 +758,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
-        <v>45</v>
+      <c r="A3" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>18.1062038658132</v>
@@ -822,8 +775,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
-        <v>46</v>
+      <c r="A4" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1.22835860198554</v>
@@ -868,7 +821,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -877,22 +830,22 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>71</v>
+      <c r="A1" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="s">
-        <v>37</v>
+      <c r="A2" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.938105540546311</v>
@@ -905,8 +858,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
-        <v>38</v>
+      <c r="A3" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.948692986021061</v>
@@ -919,8 +872,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
-        <v>39</v>
+      <c r="A4" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.963822080137339</v>
@@ -933,8 +886,8 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
-        <v>40</v>
+      <c r="A5" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.781513345189378</v>
@@ -947,8 +900,8 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
-        <v>41</v>
+      <c r="A6" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -961,8 +914,8 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
-        <v>42</v>
+      <c r="A7" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -975,8 +928,8 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
-        <v>43</v>
+      <c r="A8" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -989,8 +942,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
-        <v>44</v>
+      <c r="A9" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -1003,8 +956,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
-        <v>45</v>
+      <c r="A10" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -1017,8 +970,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="s">
-        <v>46</v>
+      <c r="A11" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -1049,7 +1002,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1058,22 +1011,22 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>73</v>
+      <c r="A1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="s">
-        <v>20</v>
+      <c r="A2" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.915335636956399</v>
@@ -1086,8 +1039,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="s">
-        <v>21</v>
+      <c r="A3" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -1100,8 +1053,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
-        <v>22</v>
+      <c r="A4" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -1114,8 +1067,8 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="s">
-        <v>23</v>
+      <c r="A5" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -1128,8 +1081,8 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="s">
-        <v>24</v>
+      <c r="A6" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -1142,8 +1095,8 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="s">
-        <v>25</v>
+      <c r="A7" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.983111169335452</v>
@@ -1156,8 +1109,8 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="s">
-        <v>26</v>
+      <c r="A8" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -1170,8 +1123,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="s">
-        <v>27</v>
+      <c r="A9" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -1184,8 +1137,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="s">
-        <v>28</v>
+      <c r="A10" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.962684126668323</v>
@@ -1198,8 +1151,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="s">
-        <v>29</v>
+      <c r="A11" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -1212,8 +1165,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="s">
-        <v>30</v>
+      <c r="A12" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.939249577558331</v>
@@ -1226,8 +1179,8 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="s">
-        <v>31</v>
+      <c r="A13" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.867976398555313</v>
@@ -1240,8 +1193,8 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="s">
-        <v>32</v>
+      <c r="A14" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1254,8 +1207,8 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13" t="s">
-        <v>33</v>
+      <c r="A15" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1268,8 +1221,8 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13" t="s">
-        <v>34</v>
+      <c r="A16" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.998479065484581</v>
@@ -1282,8 +1235,8 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13" t="s">
-        <v>35</v>
+      <c r="A17" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.994489930226294</v>
@@ -1296,8 +1249,8 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13" t="s">
-        <v>36</v>
+      <c r="A18" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.994864456585962</v>
@@ -1328,7 +1281,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W13" activeCellId="1" sqref="A5:B5 W13"/>
+      <selection pane="topLeft" activeCell="W13" activeCellId="1" sqref="B3 W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1340,58 +1293,58 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="H1" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="I1" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="J1" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="K1" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="L1" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="12" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="C2" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="D2" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>88</v>
-      </c>
       <c r="F2" s="0" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1401,20 +1354,20 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
-        <v>38</v>
+      <c r="A3" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1424,46 +1377,46 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
-        <v>39</v>
+      <c r="A4" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>99</v>
-      </c>
       <c r="F5" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1473,20 +1426,20 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
-        <v>41</v>
+      <c r="A6" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1496,79 +1449,79 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="0" t="s">
+      <c r="B10" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
+      <c r="J10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="s">
-        <v>46</v>
-      </c>
       <c r="B11" s="0" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1596,7 +1549,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="1" sqref="A5:B5 R2"/>
+      <selection pane="topLeft" activeCell="R2" activeCellId="1" sqref="B3 R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1605,64 +1558,64 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="E1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="F1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="G1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="H1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="I1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="J1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="K1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="L1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="M1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="N1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="O1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="P1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="Q1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="R1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="12" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="s">
-        <v>37</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1717,8 +1670,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
-        <v>38</v>
+      <c r="A3" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1773,8 +1726,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
-        <v>39</v>
+      <c r="A4" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-1</v>
@@ -1829,8 +1782,8 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
-        <v>40</v>
+      <c r="A5" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1885,8 +1838,8 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
-        <v>41</v>
+      <c r="A6" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1941,8 +1894,8 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
-        <v>42</v>
+      <c r="A7" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -1997,8 +1950,8 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
-        <v>43</v>
+      <c r="A8" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -2053,8 +2006,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
-        <v>44</v>
+      <c r="A9" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2109,8 +2062,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
-        <v>45</v>
+      <c r="A10" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2165,8 +2118,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="s">
-        <v>46</v>
+      <c r="A11" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2236,374 +2189,267 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="1" sqref="A5:B5 H1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B3 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B5" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="s">
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B6" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
+      <c r="C6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B7" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="s">
+      <c r="C7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B8" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="s">
+      <c r="C8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B9" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="s">
+      <c r="C9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B10" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="s">
+      <c r="C10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B11" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="s">
+      <c r="C11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B12" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="s">
+      <c r="C12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B13" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="s">
+      <c r="C13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B14" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="s">
+      <c r="C14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B15" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="s">
+      <c r="C15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B16" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="s">
+      <c r="C16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B17" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13" t="s">
+      <c r="C17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B18" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2623,172 +2469,140 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="1" sqref="A5:B5 H2"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B3 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>56</v>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B5" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B6" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B7" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
+      <c r="C7" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B8" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
+      <c r="C8" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B9" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
+      <c r="C9" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B10" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B11" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>46</v>
-      </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2810,7 +2624,7 @@
   <dimension ref="A2:A12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2819,58 +2633,58 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="s">
-        <v>47</v>
+      <c r="A2" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2892,7 +2706,7 @@
   <dimension ref="A2:A19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2901,93 +2715,93 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="s">
-        <v>57</v>
+      <c r="A2" s="9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="s">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="s">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="s">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="s">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="s">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="s">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="s">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="s">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="s">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13" t="s">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13" t="s">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="10" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -3009,7 +2823,7 @@
   <dimension ref="A2:A19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3018,93 +2832,93 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="s">
-        <v>57</v>
+      <c r="A2" s="9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="s">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="s">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="s">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="s">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="s">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="s">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="s">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="s">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="s">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13" t="s">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13" t="s">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="10" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -3126,7 +2940,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3138,19 +2952,19 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>60</v>
+      <c r="A1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="s">
-        <v>37</v>
+      <c r="A2" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-60</v>
@@ -3160,8 +2974,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
-        <v>38</v>
+      <c r="A3" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-37.2</v>
@@ -3171,8 +2985,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
-        <v>39</v>
+      <c r="A4" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>100</v>
@@ -3182,8 +2996,8 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
-        <v>40</v>
+      <c r="A5" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-23.24</v>
@@ -3193,8 +3007,8 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
-        <v>41</v>
+      <c r="A6" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-43.2</v>
@@ -3204,8 +3018,8 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
-        <v>42</v>
+      <c r="A7" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>10</v>
@@ -3215,8 +3029,8 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
-        <v>43</v>
+      <c r="A8" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-40</v>
@@ -3226,8 +3040,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
-        <v>44</v>
+      <c r="A9" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-10</v>
@@ -3237,8 +3051,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
-        <v>45</v>
+      <c r="A10" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-10</v>
@@ -3248,8 +3062,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="s">
-        <v>46</v>
+      <c r="A11" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-30</v>
@@ -3277,7 +3091,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3286,19 +3100,19 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>62</v>
+      <c r="A1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="s">
-        <v>20</v>
+      <c r="A2" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.000615288822287888</v>
@@ -3308,8 +3122,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="s">
-        <v>21</v>
+      <c r="A3" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -3319,8 +3133,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
-        <v>22</v>
+      <c r="A4" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1E-012</v>
@@ -3330,8 +3144,8 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="s">
-        <v>23</v>
+      <c r="A5" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -3341,8 +3155,8 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="s">
-        <v>24</v>
+      <c r="A6" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -3352,8 +3166,8 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="s">
-        <v>25</v>
+      <c r="A7" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.00350330474934702</v>
@@ -3363,8 +3177,8 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="s">
-        <v>26</v>
+      <c r="A8" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>1E-012</v>
@@ -3374,8 +3188,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="s">
-        <v>27</v>
+      <c r="A9" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1E-012</v>
@@ -3385,8 +3199,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="s">
-        <v>28</v>
+      <c r="A10" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.00268714877052532</v>
@@ -3396,8 +3210,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="s">
-        <v>29</v>
+      <c r="A11" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1E-012</v>
@@ -3407,8 +3221,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="s">
-        <v>30</v>
+      <c r="A12" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.000159747798927714</v>
@@ -3418,8 +3232,8 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="s">
-        <v>31</v>
+      <c r="A13" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.00041491983472442</v>
@@ -3429,8 +3243,8 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="s">
-        <v>32</v>
+      <c r="A14" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -3440,8 +3254,8 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13" t="s">
-        <v>33</v>
+      <c r="A15" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -3451,8 +3265,8 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13" t="s">
-        <v>34</v>
+      <c r="A16" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.0010378749993985</v>
@@ -3462,8 +3276,8 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13" t="s">
-        <v>35</v>
+      <c r="A17" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.0116808876440807</v>
@@ -3473,8 +3287,8 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13" t="s">
-        <v>36</v>
+      <c r="A18" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.00642280555922945</v>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model2_test_gibbs.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model2_test_gibbs.xlsx
@@ -586,7 +586,7 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="M11" activeCellId="0" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -639,7 +639,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -715,7 +715,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="1" sqref="B3 G16"/>
+      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -821,7 +821,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1002,7 +1002,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1281,7 +1281,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W13" activeCellId="1" sqref="B3 W13"/>
+      <selection pane="topLeft" activeCell="W13" activeCellId="0" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1549,7 +1549,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="1" sqref="B3 R2"/>
+      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2192,7 +2192,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B3 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2472,7 +2472,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B3 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2624,7 +2624,7 @@
   <dimension ref="A2:A12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2706,7 +2706,7 @@
   <dimension ref="A2:A19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2823,7 +2823,7 @@
   <dimension ref="A2:A19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2940,7 +2940,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3091,7 +3091,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model2_test_gibbs.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model2_test_gibbs.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="94">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -173,9 +173,6 @@
   </si>
   <si>
     <t xml:space="preserve">balanced?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measured?</t>
   </si>
   <si>
     <t xml:space="preserve">reaction name</t>
@@ -725,19 +722,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -831,16 +828,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1012,16 +1009,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1294,40 +1291,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>78</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1335,13 +1332,13 @@
         <v>34</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>81</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>82</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>22</v>
@@ -1358,16 +1355,16 @@
         <v>35</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>85</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>86</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1381,16 +1378,16 @@
         <v>36</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="E4" s="0" t="s">
         <v>89</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>90</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>25</v>
@@ -1407,13 +1404,13 @@
         <v>37</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="D5" s="13" t="s">
         <v>92</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>93</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>23</v>
@@ -1430,16 +1427,16 @@
         <v>38</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="D6" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="E6" s="0" t="s">
         <v>85</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>86</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1453,16 +1450,16 @@
         <v>39</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="D7" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="E7" s="0" t="s">
         <v>89</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>90</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>25</v>
@@ -1479,7 +1476,7 @@
         <v>40</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1493,7 +1490,7 @@
         <v>41</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1507,7 +1504,7 @@
         <v>42</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1521,7 +1518,7 @@
         <v>43</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -2189,7 +2186,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
@@ -2197,8 +2194,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2211,9 +2208,6 @@
       <c r="C1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
@@ -2225,9 +2219,6 @@
       <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
@@ -2239,9 +2230,6 @@
       <c r="C3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
@@ -2253,9 +2241,6 @@
       <c r="C4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
@@ -2267,9 +2252,6 @@
       <c r="C5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
@@ -2281,9 +2263,6 @@
       <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
@@ -2295,9 +2274,6 @@
       <c r="C7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
@@ -2309,9 +2285,6 @@
       <c r="C8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
@@ -2323,9 +2296,6 @@
       <c r="C9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
@@ -2337,9 +2307,6 @@
       <c r="C10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
@@ -2351,9 +2318,6 @@
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
@@ -2365,9 +2329,6 @@
       <c r="C12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D12" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
@@ -2379,9 +2340,6 @@
       <c r="C13" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D13" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
@@ -2393,9 +2351,6 @@
       <c r="C14" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D14" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
@@ -2407,9 +2362,6 @@
       <c r="C15" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D15" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
@@ -2421,9 +2373,6 @@
       <c r="C16" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D16" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
@@ -2435,9 +2384,6 @@
       <c r="C17" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D17" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="s">
@@ -2447,9 +2393,6 @@
         <v>33</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2486,13 +2429,13 @@
         <v>44</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="11" t="s">
         <v>49</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2716,7 +2659,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2833,7 +2776,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2953,13 +2896,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>53</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3101,13 +3044,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model2_test_gibbs.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model2_test_gibbs.xlsx
@@ -5,22 +5,21 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="stoic" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="mets" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="rxns" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="splitRatios" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="poolConst" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="thermo_ineq_constraints" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="thermoRxns" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="thermoMets" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="measRates" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="protData" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="metsData" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="kinetics1" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="poolConst" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="thermo_ineq_constraints" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="thermoRxns" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="thermoMets" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="measRates" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="protData" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="metsData" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="kinetics1" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="94">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -582,7 +581,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M11" activeCellId="0" sqref="M11"/>
     </sheetView>
   </sheetViews>
@@ -709,112 +708,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>-3.44837263471314</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>0.321480483381898</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>-3.44837263471314</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>0.321480483381898</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>18.1062038658132</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>2.68853176165261</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>18.1062038658132</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>2.68853176165261</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>1.22835860198554</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>0.239136444425047</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>1.22835860198554</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>0.239136444425047</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -991,7 +884,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1270,7 +1163,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2564,9 +2457,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A12"/>
+  <dimension ref="A2:A19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2577,57 +2470,92 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
-        <v>34</v>
+      <c r="A3" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
-        <v>35</v>
+      <c r="A4" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
-        <v>36</v>
+      <c r="A5" s="10" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
-        <v>37</v>
+      <c r="A6" s="10" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
-        <v>38</v>
+      <c r="A7" s="10" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
-        <v>39</v>
+      <c r="A8" s="10" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
-        <v>40</v>
+      <c r="A9" s="10" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
-        <v>41</v>
+      <c r="A10" s="10" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="s">
-        <v>42</v>
+      <c r="A11" s="10" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="s">
-        <v>43</v>
+      <c r="A12" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2763,123 +2691,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A19"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
-  <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -3026,7 +2837,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -3249,4 +3060,110 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>-3.44837263471314</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0.321480483381898</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>-3.44837263471314</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0.321480483381898</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>18.1062038658132</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>2.68853176165261</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>18.1062038658132</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>2.68853176165261</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>1.22835860198554</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.239136444425047</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>1.22835860198554</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.239136444425047</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
 </file>
--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model2_test_gibbs.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model2_test_gibbs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="97">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t xml:space="preserve">gurobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for fluxes (uniform or normal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for thermodynamic quantities (uniform or normal)</t>
   </si>
   <si>
     <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
@@ -324,7 +333,7 @@
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -369,6 +378,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -445,7 +461,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -472,6 +488,14 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -581,8 +605,8 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M11" activeCellId="0" sqref="M11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -630,64 +654,78 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="B6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3" t="n">
-        <v>1</v>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="7" t="n">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="B10" s="9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="5" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="10" t="n">
+        <v>1</v>
+      </c>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
@@ -711,7 +749,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -720,22 +758,22 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>64</v>
       </c>
+      <c r="B1" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
-        <v>34</v>
+      <c r="A2" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.938105540546311</v>
@@ -748,8 +786,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
-        <v>35</v>
+      <c r="A3" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.948692986021061</v>
@@ -762,8 +800,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
-        <v>36</v>
+      <c r="A4" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.963822080137339</v>
@@ -776,8 +814,8 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
-        <v>37</v>
+      <c r="A5" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.781513345189378</v>
@@ -790,8 +828,8 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
-        <v>38</v>
+      <c r="A6" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -804,8 +842,8 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
-        <v>39</v>
+      <c r="A7" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -818,8 +856,8 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
-        <v>40</v>
+      <c r="A8" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -832,8 +870,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
-        <v>41</v>
+      <c r="A9" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -846,8 +884,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
-        <v>42</v>
+      <c r="A10" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -860,8 +898,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="s">
-        <v>43</v>
+      <c r="A11" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -892,7 +930,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -901,22 +939,22 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="A1" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>66</v>
       </c>
+      <c r="D1" s="11" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
-        <v>17</v>
+      <c r="A2" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.915335636956399</v>
@@ -929,8 +967,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
-        <v>18</v>
+      <c r="A3" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -943,8 +981,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
-        <v>19</v>
+      <c r="A4" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -957,8 +995,8 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
-        <v>20</v>
+      <c r="A5" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -971,8 +1009,8 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
-        <v>21</v>
+      <c r="A6" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -985,8 +1023,8 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
-        <v>22</v>
+      <c r="A7" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.983111169335452</v>
@@ -999,8 +1037,8 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
-        <v>23</v>
+      <c r="A8" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -1013,8 +1051,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
-        <v>24</v>
+      <c r="A9" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -1027,8 +1065,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
-        <v>25</v>
+      <c r="A10" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.962684126668323</v>
@@ -1041,8 +1079,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
-        <v>26</v>
+      <c r="A11" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -1055,8 +1093,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
-        <v>27</v>
+      <c r="A12" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.939249577558331</v>
@@ -1069,8 +1107,8 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
-        <v>28</v>
+      <c r="A13" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.867976398555313</v>
@@ -1083,8 +1121,8 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="s">
-        <v>29</v>
+      <c r="A14" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1097,8 +1135,8 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
-        <v>30</v>
+      <c r="A15" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1111,8 +1149,8 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="s">
-        <v>31</v>
+      <c r="A16" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.998479065484581</v>
@@ -1125,8 +1163,8 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="s">
-        <v>32</v>
+      <c r="A17" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.994489930226294</v>
@@ -1139,8 +1177,8 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10" t="s">
-        <v>33</v>
+      <c r="A18" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.994864456585962</v>
@@ -1171,7 +1209,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W13" activeCellId="0" sqref="W13"/>
+      <selection pane="topLeft" activeCell="W13" activeCellId="1" sqref="A6:B7 W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1183,58 +1221,58 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="C1" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="D1" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="E1" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="F1" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="G1" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="H1" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="I1" s="11" t="s">
         <v>78</v>
       </c>
+      <c r="J1" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
-        <v>34</v>
+      <c r="A2" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1244,20 +1282,20 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
-        <v>35</v>
+      <c r="A3" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1267,23 +1305,23 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
-        <v>36</v>
+      <c r="A4" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -1293,20 +1331,20 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
-        <v>37</v>
+      <c r="A5" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>92</v>
+        <v>94</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>95</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1316,20 +1354,20 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
-        <v>38</v>
+      <c r="A6" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1339,23 +1377,23 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
-        <v>39</v>
+      <c r="A7" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -1365,11 +1403,11 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
-        <v>40</v>
+      <c r="A8" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1379,11 +1417,11 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
-        <v>41</v>
+      <c r="A9" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1393,11 +1431,11 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
-        <v>42</v>
+      <c r="A10" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1407,11 +1445,11 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="s">
-        <v>43</v>
+      <c r="A11" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1439,7 +1477,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
+      <selection pane="topLeft" activeCell="R2" activeCellId="1" sqref="A6:B7 R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1448,64 +1486,64 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="C1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="D1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="E1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="F1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="G1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="H1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="I1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="J1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="K1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="L1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="M1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="N1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="O1" s="11" t="s">
         <v>33</v>
       </c>
+      <c r="P1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
-        <v>34</v>
+      <c r="A2" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1560,8 +1598,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
-        <v>35</v>
+      <c r="A3" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1616,8 +1654,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
-        <v>36</v>
+      <c r="A4" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-1</v>
@@ -1672,8 +1710,8 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
-        <v>37</v>
+      <c r="A5" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1728,8 +1766,8 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
-        <v>38</v>
+      <c r="A6" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1784,8 +1822,8 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
-        <v>39</v>
+      <c r="A7" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -1840,8 +1878,8 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
-        <v>40</v>
+      <c r="A8" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -1896,8 +1934,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
-        <v>41</v>
+      <c r="A9" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -1952,8 +1990,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
-        <v>42</v>
+      <c r="A10" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2008,8 +2046,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="s">
-        <v>43</v>
+      <c r="A11" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2082,7 +2120,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A6:B7 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2092,198 +2130,198 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>46</v>
+      <c r="A1" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
-        <v>17</v>
+      <c r="A2" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
-        <v>18</v>
+      <c r="A3" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
-        <v>19</v>
+      <c r="A4" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
-        <v>20</v>
+      <c r="A5" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
-        <v>21</v>
+      <c r="A6" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
-        <v>22</v>
+      <c r="A7" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
-        <v>23</v>
+      <c r="A8" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
-        <v>24</v>
+      <c r="A9" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
-        <v>25</v>
+      <c r="A10" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
-        <v>26</v>
+      <c r="A11" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
-        <v>27</v>
+      <c r="A12" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
-        <v>28</v>
+      <c r="A13" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="s">
-        <v>29</v>
+      <c r="A14" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
-        <v>30</v>
+      <c r="A15" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="s">
-        <v>31</v>
+      <c r="A16" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="s">
-        <v>32</v>
+      <c r="A17" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10" t="s">
-        <v>33</v>
+      <c r="A18" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -2308,7 +2346,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A6:B7 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2318,124 +2356,124 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>41</v>
+      <c r="B9" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>42</v>
+      <c r="A10" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>45</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>43</v>
+      <c r="A11" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -2459,8 +2497,8 @@
   </sheetPr>
   <dimension ref="A2:A19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A6:B7 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2469,93 +2507,93 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
-        <v>50</v>
+      <c r="A2" s="11" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
-        <v>17</v>
+      <c r="A3" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
-        <v>18</v>
+      <c r="A4" s="12" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
-        <v>19</v>
+      <c r="A5" s="12" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
-        <v>20</v>
+      <c r="A6" s="12" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
-        <v>21</v>
+      <c r="A7" s="12" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
-        <v>22</v>
+      <c r="A8" s="12" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
-        <v>23</v>
+      <c r="A9" s="12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
-        <v>24</v>
+      <c r="A10" s="12" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
-        <v>25</v>
+      <c r="A11" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
-        <v>26</v>
+      <c r="A12" s="12" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
-        <v>27</v>
+      <c r="A13" s="12" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="s">
-        <v>28</v>
+      <c r="A14" s="12" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
-        <v>29</v>
+      <c r="A15" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="s">
-        <v>30</v>
+      <c r="A16" s="12" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="s">
-        <v>31</v>
+      <c r="A17" s="12" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10" t="s">
-        <v>32</v>
+      <c r="A18" s="12" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="s">
-        <v>33</v>
+      <c r="A19" s="12" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2577,7 +2615,7 @@
   <dimension ref="A2:A19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A6:B7 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2586,93 +2624,93 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
-        <v>50</v>
+      <c r="A2" s="11" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
-        <v>17</v>
+      <c r="A3" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
-        <v>18</v>
+      <c r="A4" s="12" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
-        <v>19</v>
+      <c r="A5" s="12" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
-        <v>20</v>
+      <c r="A6" s="12" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
-        <v>21</v>
+      <c r="A7" s="12" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
-        <v>22</v>
+      <c r="A8" s="12" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
-        <v>23</v>
+      <c r="A9" s="12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
-        <v>24</v>
+      <c r="A10" s="12" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
-        <v>25</v>
+      <c r="A11" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
-        <v>26</v>
+      <c r="A12" s="12" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
-        <v>27</v>
+      <c r="A13" s="12" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="s">
-        <v>28</v>
+      <c r="A14" s="12" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
-        <v>29</v>
+      <c r="A15" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="s">
-        <v>30</v>
+      <c r="A16" s="12" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="s">
-        <v>31</v>
+      <c r="A17" s="12" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10" t="s">
-        <v>32</v>
+      <c r="A18" s="12" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="s">
-        <v>33</v>
+      <c r="A19" s="12" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2694,7 +2732,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2706,19 +2744,19 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>53</v>
+      <c r="A1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
-        <v>34</v>
+      <c r="A2" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-60</v>
@@ -2728,8 +2766,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
-        <v>35</v>
+      <c r="A3" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-37.2</v>
@@ -2739,8 +2777,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
-        <v>36</v>
+      <c r="A4" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>100</v>
@@ -2750,8 +2788,8 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
-        <v>37</v>
+      <c r="A5" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-23.24</v>
@@ -2761,8 +2799,8 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
-        <v>38</v>
+      <c r="A6" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-43.2</v>
@@ -2772,8 +2810,8 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
-        <v>39</v>
+      <c r="A7" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>10</v>
@@ -2783,8 +2821,8 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
-        <v>40</v>
+      <c r="A8" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-40</v>
@@ -2794,8 +2832,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
-        <v>41</v>
+      <c r="A9" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-10</v>
@@ -2805,8 +2843,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
-        <v>42</v>
+      <c r="A10" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-10</v>
@@ -2816,8 +2854,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="s">
-        <v>43</v>
+      <c r="A11" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-30</v>
@@ -2845,7 +2883,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2854,19 +2892,19 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>55</v>
+      <c r="A1" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
-        <v>17</v>
+      <c r="A2" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.000615288822287888</v>
@@ -2876,8 +2914,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
-        <v>18</v>
+      <c r="A3" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -2887,8 +2925,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
-        <v>19</v>
+      <c r="A4" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1E-012</v>
@@ -2898,8 +2936,8 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
-        <v>20</v>
+      <c r="A5" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -2909,8 +2947,8 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
-        <v>21</v>
+      <c r="A6" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -2920,8 +2958,8 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
-        <v>22</v>
+      <c r="A7" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.00350330474934702</v>
@@ -2931,8 +2969,8 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
-        <v>23</v>
+      <c r="A8" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>1E-012</v>
@@ -2942,8 +2980,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
-        <v>24</v>
+      <c r="A9" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1E-012</v>
@@ -2953,8 +2991,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
-        <v>25</v>
+      <c r="A10" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.00268714877052532</v>
@@ -2964,8 +3002,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
-        <v>26</v>
+      <c r="A11" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1E-012</v>
@@ -2975,8 +3013,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
-        <v>27</v>
+      <c r="A12" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.000159747798927714</v>
@@ -2986,8 +3024,8 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
-        <v>28</v>
+      <c r="A13" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.00041491983472442</v>
@@ -2997,8 +3035,8 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="s">
-        <v>29</v>
+      <c r="A14" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -3008,8 +3046,8 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
-        <v>30</v>
+      <c r="A15" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -3019,8 +3057,8 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="s">
-        <v>31</v>
+      <c r="A16" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.0010378749993985</v>
@@ -3030,8 +3068,8 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="s">
-        <v>32</v>
+      <c r="A17" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.0116808876440807</v>
@@ -3041,8 +3079,8 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10" t="s">
-        <v>33</v>
+      <c r="A18" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.00642280555922945</v>
@@ -3070,7 +3108,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
+      <selection pane="topLeft" activeCell="G16" activeCellId="1" sqref="A6:B7 G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3079,25 +3117,25 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>60</v>
       </c>
+      <c r="C1" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
-        <v>41</v>
+      <c r="A2" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-3.44837263471314</v>
@@ -3113,8 +3151,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
-        <v>42</v>
+      <c r="A3" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>18.1062038658132</v>
@@ -3130,8 +3168,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
-        <v>43</v>
+      <c r="A4" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1.22835860198554</v>
